--- a/Для загрузки данных/Для загрузки данныхXLSX.xlsx
+++ b/Для загрузки данных/Для загрузки данныхXLSX.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,79 +349,67 @@
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>230</v>
+      </c>
+      <c r="C3">
         <v>150</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Для загрузки данных/Для загрузки данныхXLSX.xlsx
+++ b/Для загрузки данных/Для загрузки данныхXLSX.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,7 +376,7 @@
         <v>230</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
